--- a/Unity/Assets/Config/Excel/SkillLogicConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillLogicConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -27,11 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>所属角色</t>
+  </si>
+  <si>
     <t>所属技能</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
     <t>等级</t>
   </si>
   <si>
+    <t>OwnerRole</t>
+  </si>
+  <si>
     <t>OwnerSkillConfigId</t>
   </si>
   <si>
@@ -59,10 +65,10 @@
     <t>LogicCode</t>
   </si>
   <si>
-    <t>LogicParam</t>
-  </si>
-  <si>
-    <t>DataParam</t>
+    <t>LogicParam1</t>
+  </si>
+  <si>
+    <t>DataParam1</t>
   </si>
   <si>
     <t>Level</t>
@@ -74,16 +80,43 @@
     <t>string</t>
   </si>
   <si>
+    <t>英雄1</t>
+  </si>
+  <si>
     <t>PlayAnim</t>
   </si>
   <si>
     <t>attack0</t>
   </si>
   <si>
+    <t>Single</t>
+  </si>
+  <si>
     <t>Damage</t>
   </si>
   <si>
-    <t>Single</t>
+    <t>英雄2</t>
+  </si>
+  <si>
+    <t>英雄3</t>
+  </si>
+  <si>
+    <t>英雄4</t>
+  </si>
+  <si>
+    <t>蘑菇</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>SingleTarget</t>
+  </si>
+  <si>
+    <t>兔子</t>
+  </si>
+  <si>
+    <t>鸭子</t>
   </si>
 </sst>
 </file>
@@ -723,19 +756,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1093,281 +1120,850 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J13"/>
+  <dimension ref="C3:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G14"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6272727272727" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.6363636363636" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.0909090909091" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.7545454545455" style="4" customWidth="1"/>
-    <col min="7" max="8" width="20.1818181818182" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.5454545454545" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.1818181818182" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7583333333333" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.6333333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.0916666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.7583333333333" style="3" customWidth="1"/>
+    <col min="8" max="9" width="20.1833333333333" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.5416666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.1833333333333" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" ht="13.5" spans="3:10">
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="3:11">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" ht="13.5" spans="3:10">
-      <c r="C4" s="5" t="s">
+      <c r="J3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="3:11">
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" ht="13.5" spans="3:10">
-      <c r="C5" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:9">
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:10">
       <c r="C6" s="1">
         <v>10001</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1">
         <v>1001</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1">
-        <v>10000</v>
+      <c r="G6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:9">
+        <v>10000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:10">
       <c r="C7" s="1">
         <v>10002</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1">
         <v>1001</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>1000</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="1">
-        <v>10000</v>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="3:9">
+        <v>10000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:10">
       <c r="C8" s="1">
         <v>10003</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1">
         <v>1002</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="1">
-        <v>10000</v>
+      <c r="G8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="3:9">
+        <v>10000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:10">
       <c r="C9" s="1">
         <v>10004</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1">
         <v>1002</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>1000</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1">
-        <v>10000</v>
+      <c r="G9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9">
+        <v>10000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10">
       <c r="C10" s="1">
         <v>10005</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3">
         <v>1003</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="1">
-        <v>10000</v>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9">
+        <v>10000</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10">
       <c r="C11" s="1">
         <v>10006</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3">
         <v>1003</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>1000</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="1">
-        <v>10000</v>
+      <c r="G11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9">
+        <v>10000</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10">
       <c r="C12" s="1">
         <v>10007</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3">
         <v>1004</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="1">
-        <v>10000</v>
+      <c r="G12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9">
+        <v>10000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10">
       <c r="C13" s="1">
         <v>10008</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="3">
         <v>1004</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>1000</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10">
+      <c r="C14" s="1">
+        <v>10009</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1005</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
+      <c r="H14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10">
+      <c r="C15" s="1">
+        <v>10010</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1005</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10">
+      <c r="C16" s="1">
+        <v>10011</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1006</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="1">
+        <v>10012</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1006</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="1">
+        <v>10013</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="1">
+        <v>10014</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="1">
+        <v>10015</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1008</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="1">
+        <v>10016</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1008</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="1">
+        <v>10017</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1009</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="1">
+        <v>10018</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1009</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="1">
+        <v>10019</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1010</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" s="1">
+        <v>10020</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1010</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="1">
+        <v>10021</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1011</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" s="1">
+        <v>10022</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1011</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28" s="1">
+        <v>10023</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1012</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29" s="1">
+        <v>10024</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1012</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30" s="1">
+        <v>10025</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1013</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="C31" s="1">
+        <v>10026</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1013</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32" s="1">
+        <v>10027</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1014</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33" s="1">
+        <v>10028</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1014</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8">
+      <c r="G34" s="6"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="7:8">
+      <c r="G35" s="6"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="7:8">
+      <c r="G36" s="6"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="7:8">
+      <c r="G37" s="6"/>
+      <c r="H37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/SkillLogicConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillLogicConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="20850" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -89,7 +89,7 @@
     <t>attack0</t>
   </si>
   <si>
-    <t>Single</t>
+    <t>SingleTarget</t>
   </si>
   <si>
     <t>Damage</t>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>attack</t>
-  </si>
-  <si>
-    <t>SingleTarget</t>
   </si>
   <si>
     <t>兔子</t>
@@ -1123,24 +1120,24 @@
   <dimension ref="C3:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7583333333333" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.6333333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.0916666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.7583333333333" style="3" customWidth="1"/>
-    <col min="8" max="9" width="20.1833333333333" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.5416666666667" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.1833333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.6272727272727" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.6363636363636" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.0909090909091" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.7545454545455" style="3" customWidth="1"/>
+    <col min="8" max="9" width="20.1818181818182" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.5454545454545" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.1818181818182" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11">
+    <row r="3" ht="13.5" spans="3:11">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1167,7 +1164,7 @@
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="3:11">
+    <row r="4" ht="13.5" spans="3:11">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +1191,7 @@
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="3:11">
+    <row r="5" ht="13.5" spans="3:11">
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1680,7 +1677,7 @@
         <v>21</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I23" s="1">
         <v>10000</v>
@@ -1746,7 +1743,7 @@
         <v>10021</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="3">
         <v>1011</v>
@@ -1772,7 +1769,7 @@
         <v>10022</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E27" s="3">
         <v>1011</v>
@@ -1798,7 +1795,7 @@
         <v>10023</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" s="3">
         <v>1012</v>
@@ -1824,7 +1821,7 @@
         <v>10024</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" s="3">
         <v>1012</v>
@@ -1850,7 +1847,7 @@
         <v>10025</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" s="3">
         <v>1013</v>
@@ -1876,7 +1873,7 @@
         <v>10026</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" s="3">
         <v>1013</v>
@@ -1902,7 +1899,7 @@
         <v>10027</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E32" s="3">
         <v>1014</v>
@@ -1928,7 +1925,7 @@
         <v>10028</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33" s="3">
         <v>1014</v>

--- a/Unity/Assets/Config/Excel/SkillLogicConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillLogicConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20850" windowHeight="13380"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1120,7 +1120,7 @@
   <dimension ref="C3:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="F30" sqref="F30:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1255,7 +1255,7 @@
         <v>1001</v>
       </c>
       <c r="F7" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>18</v>
@@ -1307,7 +1307,7 @@
         <v>1002</v>
       </c>
       <c r="F9" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>21</v>
@@ -1359,7 +1359,7 @@
         <v>1003</v>
       </c>
       <c r="F11" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>21</v>
@@ -1411,7 +1411,7 @@
         <v>1004</v>
       </c>
       <c r="F13" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>21</v>
@@ -1463,7 +1463,7 @@
         <v>1005</v>
       </c>
       <c r="F15" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>21</v>
@@ -1515,7 +1515,7 @@
         <v>1006</v>
       </c>
       <c r="F17" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>21</v>
@@ -1567,7 +1567,7 @@
         <v>1007</v>
       </c>
       <c r="F19" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>21</v>
@@ -1619,7 +1619,7 @@
         <v>1008</v>
       </c>
       <c r="F21" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>21</v>
@@ -1671,7 +1671,7 @@
         <v>1009</v>
       </c>
       <c r="F23" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>21</v>
@@ -1723,7 +1723,7 @@
         <v>1010</v>
       </c>
       <c r="F25" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>21</v>
@@ -1775,7 +1775,7 @@
         <v>1011</v>
       </c>
       <c r="F27" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>21</v>
@@ -1827,7 +1827,7 @@
         <v>1012</v>
       </c>
       <c r="F29" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>21</v>
@@ -1879,7 +1879,7 @@
         <v>1013</v>
       </c>
       <c r="F31" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>21</v>
@@ -1931,7 +1931,7 @@
         <v>1014</v>
       </c>
       <c r="F33" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>21</v>

--- a/Unity/Assets/Config/Excel/SkillLogicConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillLogicConfig.xlsx
@@ -89,10 +89,10 @@
     <t>attack0</t>
   </si>
   <si>
+    <t>Damage</t>
+  </si>
+  <si>
     <t>SingleTarget</t>
-  </si>
-  <si>
-    <t>Damage</t>
   </si>
   <si>
     <t>英雄2</t>
@@ -1120,7 +1120,7 @@
   <dimension ref="C3:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:F33"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1258,10 +1258,10 @@
         <v>500</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I7" s="1">
         <v>10000</v>
@@ -1310,10 +1310,10 @@
         <v>500</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I9" s="1">
         <v>10000</v>
@@ -1362,10 +1362,10 @@
         <v>500</v>
       </c>
       <c r="G11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I11" s="1">
         <v>10000</v>
@@ -1414,10 +1414,10 @@
         <v>500</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I13" s="1">
         <v>10000</v>
@@ -1466,10 +1466,10 @@
         <v>500</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I15" s="1">
         <v>10000</v>
@@ -1518,10 +1518,10 @@
         <v>500</v>
       </c>
       <c r="G17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I17" s="1">
         <v>10000</v>
@@ -1570,10 +1570,10 @@
         <v>500</v>
       </c>
       <c r="G19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I19" s="1">
         <v>10000</v>
@@ -1622,10 +1622,10 @@
         <v>500</v>
       </c>
       <c r="G21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I21" s="1">
         <v>10000</v>
@@ -1674,10 +1674,10 @@
         <v>500</v>
       </c>
       <c r="G23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I23" s="1">
         <v>10000</v>
@@ -1726,10 +1726,10 @@
         <v>500</v>
       </c>
       <c r="G25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I25" s="1">
         <v>10000</v>
@@ -1778,10 +1778,10 @@
         <v>500</v>
       </c>
       <c r="G27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I27" s="1">
         <v>10000</v>
@@ -1830,10 +1830,10 @@
         <v>500</v>
       </c>
       <c r="G29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I29" s="1">
         <v>10000</v>
@@ -1882,10 +1882,10 @@
         <v>500</v>
       </c>
       <c r="G31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I31" s="1">
         <v>10000</v>
@@ -1934,10 +1934,10 @@
         <v>500</v>
       </c>
       <c r="G33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I33" s="1">
         <v>10000</v>

--- a/Unity/Assets/Config/Excel/SkillLogicConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillLogicConfig.xlsx
@@ -1120,7 +1120,7 @@
   <dimension ref="C3:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C7" sqref="C7:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>

--- a/Unity/Assets/Config/Excel/SkillLogicConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillLogicConfig.xlsx
@@ -1120,7 +1120,7 @@
   <dimension ref="C3:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:J33"/>
+      <selection activeCell="F6" sqref="F6:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1255,7 +1255,7 @@
         <v>1001</v>
       </c>
       <c r="F7" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>20</v>
@@ -1307,7 +1307,7 @@
         <v>1002</v>
       </c>
       <c r="F9" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>20</v>
@@ -1359,7 +1359,7 @@
         <v>1003</v>
       </c>
       <c r="F11" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>20</v>
@@ -1411,7 +1411,7 @@
         <v>1004</v>
       </c>
       <c r="F13" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>20</v>
@@ -1463,7 +1463,7 @@
         <v>1005</v>
       </c>
       <c r="F15" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>20</v>
@@ -1515,7 +1515,7 @@
         <v>1006</v>
       </c>
       <c r="F17" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>20</v>
@@ -1567,7 +1567,7 @@
         <v>1007</v>
       </c>
       <c r="F19" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>20</v>
@@ -1619,7 +1619,7 @@
         <v>1008</v>
       </c>
       <c r="F21" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>20</v>
@@ -1671,7 +1671,7 @@
         <v>1009</v>
       </c>
       <c r="F23" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>20</v>
@@ -1723,7 +1723,7 @@
         <v>1010</v>
       </c>
       <c r="F25" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>20</v>
@@ -1775,7 +1775,7 @@
         <v>1011</v>
       </c>
       <c r="F27" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>20</v>
@@ -1827,7 +1827,7 @@
         <v>1012</v>
       </c>
       <c r="F29" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>20</v>
@@ -1879,7 +1879,7 @@
         <v>1013</v>
       </c>
       <c r="F31" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>20</v>
@@ -1931,7 +1931,7 @@
         <v>1014</v>
       </c>
       <c r="F33" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>20</v>
